--- a/Cleaned Data/pathogen_info_NumEdges_DISPOT.xlsx
+++ b/Cleaned Data/pathogen_info_NumEdges_DISPOT.xlsx
@@ -661,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +800,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1152,7 +1160,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1164,6 +1172,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1489,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2725,7 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>31</v>
       </c>
       <c r="E39">
@@ -2743,7 +2757,7 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="6"/>
       <c r="E40">
         <v>211044</v>
       </c>
@@ -2773,7 +2787,7 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="6"/>
       <c r="E41">
         <v>211044</v>
       </c>
@@ -4805,7 +4819,7 @@
       <c r="C110" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="5">
         <v>31</v>
       </c>
       <c r="E110">
@@ -5917,18 +5931,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="D150:D151"/>
     <mergeCell ref="D148:D149"/>
@@ -5941,6 +5943,18 @@
     <mergeCell ref="D98:D99"/>
     <mergeCell ref="D111:D112"/>
     <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
